--- a/CardList.xlsx
+++ b/CardList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Galaxy-Card-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0CB8D1-92EF-469F-AE0C-75825B0A7F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9132E2-9E7A-4D78-BA82-98C6BDE84DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,45 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Constant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Type(类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity(稀有度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name(卡名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id(编号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect(效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health(生命值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack(攻击力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant(持续)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon(武器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost(消耗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FleetCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试护卫舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +97,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,49 +409,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="16384" width="15.59765625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="E2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>